--- a/data/trans_dic/P33B_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R3-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1159656873845732</v>
+        <v>0.1156184934413393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1324356791472806</v>
+        <v>0.1307958692173398</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.12978261927935</v>
+        <v>0.1296167709957549</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1785982509788166</v>
+        <v>0.1750384836391296</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1872445176529518</v>
+        <v>0.1808578641772475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1712823423679076</v>
+        <v>0.1706659305011083</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09975573407077955</v>
+        <v>0.09904399748117446</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1335353451911075</v>
+        <v>0.1351050139516173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1248606961422585</v>
+        <v>0.1229421050656468</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1627790916558678</v>
+        <v>0.1604866293808753</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1934989616156141</v>
+        <v>0.1936576663821601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1672833095035825</v>
+        <v>0.1660982701075243</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1673715166393609</v>
+        <v>0.1672734184964655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2341406959765015</v>
+        <v>0.2301525014892242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1928857127253023</v>
+        <v>0.1959648147334218</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2415572830280414</v>
+        <v>0.2395879358272161</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3444686329703919</v>
+        <v>0.3362496287145296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2542742464472707</v>
+        <v>0.2565643610708676</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.147838869963589</v>
+        <v>0.1472862549771745</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1820834168065823</v>
+        <v>0.1831147860127483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1675211120830717</v>
+        <v>0.168609901737216</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1943115020988267</v>
+        <v>0.1942402099023814</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2270890425082058</v>
+        <v>0.2278360430190647</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2009011088815862</v>
+        <v>0.2011281121548128</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1291389680143516</v>
+        <v>0.1327207471307535</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2642834668939238</v>
+        <v>0.2663475949276325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.216275124136314</v>
+        <v>0.2160901135666013</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1964775144964067</v>
+        <v>0.1968904294311808</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3152280172877654</v>
+        <v>0.3175230846752788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2587576775239501</v>
+        <v>0.2567768330244777</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.0629293347892467</v>
+        <v>0.06292933478924669</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2273245388127863</v>
+        <v>0.2273245388127864</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1912646321862738</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03069417000034009</v>
+        <v>0.02884370504838458</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2040447507279155</v>
+        <v>0.2057133431168827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1700368457774903</v>
+        <v>0.1691901082646651</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1311217315748777</v>
+        <v>0.123472200091756</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2525309312744038</v>
+        <v>0.2538947495029387</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.215229377028707</v>
+        <v>0.2174101286232943</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.2220732498372381</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1893598577945034</v>
+        <v>0.1893598577945033</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1429065804996787</v>
+        <v>0.1431780143024008</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2105220311386611</v>
+        <v>0.2105769618446221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1811404399955693</v>
+        <v>0.1806112880721546</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1679888253277808</v>
+        <v>0.169465488365099</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2332682647723291</v>
+        <v>0.2331577046870682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.197931517653527</v>
+        <v>0.1983944438525491</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>63853</v>
+        <v>63662</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>64683</v>
+        <v>63882</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>134848</v>
+        <v>134676</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>98339</v>
+        <v>96379</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>91452</v>
+        <v>88333</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>177967</v>
+        <v>177327</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>48105</v>
+        <v>47761</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56505</v>
+        <v>57169</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>113045</v>
+        <v>111308</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78496</v>
+        <v>77391</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81878</v>
+        <v>81945</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>151453</v>
+        <v>150380</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78934</v>
+        <v>78888</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43901</v>
+        <v>43153</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>127133</v>
+        <v>129162</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>113921</v>
+        <v>112993</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64587</v>
+        <v>63046</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>167594</v>
+        <v>169104</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>167330</v>
+        <v>166705</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>156812</v>
+        <v>157700</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>333879</v>
+        <v>336049</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>219930</v>
+        <v>219849</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>195572</v>
+        <v>196215</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>400407</v>
+        <v>400859</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>73207</v>
+        <v>75237</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>219389</v>
+        <v>221102</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>302138</v>
+        <v>301880</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111380</v>
+        <v>111614</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>261679</v>
+        <v>263584</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>361487</v>
+        <v>358720</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7282</v>
+        <v>6843</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>172271</v>
+        <v>173680</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>183896</v>
+        <v>182981</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31106</v>
+        <v>29291</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>213207</v>
+        <v>214359</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>232773</v>
+        <v>235131</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>491657</v>
+        <v>492590</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>765178</v>
+        <v>765378</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1281583</v>
+        <v>1277839</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>577950</v>
+        <v>583030</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>847853</v>
+        <v>847451</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1400381</v>
+        <v>1403656</v>
       </c>
     </row>
     <row r="32">
